--- a/flask/app/static/files/exportaciones/solicitudes_activas.xlsx
+++ b/flask/app/static/files/exportaciones/solicitudes_activas.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,8 +459,8 @@
     <col customWidth="1" max="1" min="1" width="15"/>
     <col customWidth="1" max="2" min="2" width="13"/>
     <col customWidth="1" max="3" min="3" width="19"/>
-    <col customWidth="1" max="4" min="4" width="28"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="4" min="4" width="31"/>
+    <col customWidth="1" max="5" min="5" width="30"/>
     <col customWidth="1" max="6" min="6" width="16"/>
     <col customWidth="1" max="7" min="7" width="23"/>
     <col customWidth="1" max="8" min="8" width="11"/>
@@ -470,7 +470,7 @@
     <col customWidth="1" max="12" min="12" width="19"/>
     <col customWidth="1" max="13" min="13" width="20"/>
     <col customWidth="1" max="14" min="14" width="24"/>
-    <col customWidth="1" max="15" min="15" width="19"/>
+    <col customWidth="1" max="15" min="15" width="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -552,140 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>765</v>
+        <v>843</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>196378081</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>123 123</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Notebook  Asus 636-512</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>ZZZZZ6</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>001</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Con atraso</t>
+          <t>En posesión</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44108.05787037037</v>
+        <v>44111.66673611111</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>44108.0684837963</v>
+        <v>44112.05888888889</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>44110.77083333334</v>
+        <v>44116.77083333334</v>
       </c>
       <c r="L2" s="2" t="n"/>
       <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="n"/>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>ARQUITECTURA DE SISTEMAS</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>622</v>
+        <v>829</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>188639089</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Lino Cisternas</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LINK TL-WN722N</t>
+          <t>Router sony PS5	 Sony PS5</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>SONYPS</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>001</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>Con atraso</t>
+          <t>En posesión</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>44105.06001157407</v>
+        <v>44111.02668981482</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>44105.06001157407</v>
+        <v>44111.0294212963</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>44110.77083333334</v>
+        <v>44441.77083333334</v>
       </c>
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>199</v>
+        <v>824</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>AA431</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>018</t>
+          <t>007</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -694,20 +698,77 @@
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>44051.89761574074</v>
+        <v>44110.98806712963</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>44051.94155092593</v>
+        <v>44111.66756944444</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>44155.77083333334</v>
+        <v>44113.77083333334</v>
       </c>
       <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="O4" s="2" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>BASES DE DATOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>765</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>196378081</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Nicolás Felipe Opazo Gana</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Celular Samsung Galaxy S4</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Con atraso</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>44108.05787037037</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>44108.0684837963</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>44110.77083333334</v>
+      </c>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/flask/app/static/files/exportaciones/solicitudes_activas.xlsx
+++ b/flask/app/static/files/exportaciones/solicitudes_activas.xlsx
@@ -626,7 +626,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Router sony PS5	 Sony PS5</t>
+          <t>Consola Sony PS5</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -704,12 +704,12 @@
         <v>44111.66756944444</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>44113.77083333334</v>
+        <v>44120.77083333334</v>
       </c>
       <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>

--- a/flask/app/static/files/exportaciones/solicitudes_activas.xlsx
+++ b/flask/app/static/files/exportaciones/solicitudes_activas.xlsx
@@ -460,7 +460,7 @@
     <col customWidth="1" max="2" min="2" width="13"/>
     <col customWidth="1" max="3" min="3" width="19"/>
     <col customWidth="1" max="4" min="4" width="31"/>
-    <col customWidth="1" max="5" min="5" width="30"/>
+    <col customWidth="1" max="5" min="5" width="31"/>
     <col customWidth="1" max="6" min="6" width="16"/>
     <col customWidth="1" max="7" min="7" width="23"/>
     <col customWidth="1" max="8" min="8" width="11"/>
@@ -470,7 +470,7 @@
     <col customWidth="1" max="12" min="12" width="19"/>
     <col customWidth="1" max="13" min="13" width="20"/>
     <col customWidth="1" max="14" min="14" width="24"/>
-    <col customWidth="1" max="15" min="15" width="24"/>
+    <col customWidth="1" max="15" min="15" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -552,29 +552,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>843</v>
+        <v>902</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Notebook  Asus 636-512</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>ZZZZZ6</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -584,26 +584,24 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>En posesión</t>
+          <t>Por retirar</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44111.66673611111</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>44112.05888888889</v>
-      </c>
-      <c r="K2" s="3" t="n">
+        <v>44115.47414351852</v>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n">
         <v>44116.77083333334</v>
       </c>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>ARQUITECTURA DE SISTEMAS</t>
+          <t>PROYECTO EN TICS III</t>
         </is>
       </c>
     </row>

--- a/flask/app/static/files/exportaciones/solicitudes_activas.xlsx
+++ b/flask/app/static/files/exportaciones/solicitudes_activas.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <col customWidth="1" max="2" min="2" width="13"/>
     <col customWidth="1" max="3" min="3" width="19"/>
     <col customWidth="1" max="4" min="4" width="31"/>
-    <col customWidth="1" max="5" min="5" width="31"/>
+    <col customWidth="1" max="5" min="5" width="20"/>
     <col customWidth="1" max="6" min="6" width="16"/>
     <col customWidth="1" max="7" min="7" width="23"/>
     <col customWidth="1" max="8" min="8" width="11"/>
@@ -470,7 +470,7 @@
     <col customWidth="1" max="12" min="12" width="19"/>
     <col customWidth="1" max="13" min="13" width="20"/>
     <col customWidth="1" max="14" min="14" width="24"/>
-    <col customWidth="1" max="15" min="15" width="20"/>
+    <col customWidth="1" max="15" min="15" width="27"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -552,29 +552,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>902</v>
+        <v>936</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>AAA192</t>
+          <t>ABC432</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -584,24 +584,26 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Por retirar</t>
+          <t>Con atraso</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44115.47414351852</v>
-      </c>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
+        <v>44129.04983796296</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>44129.60146990741</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>44130.77083333334</v>
+      </c>
       <c r="L2" s="2" t="n"/>
-      <c r="M2" s="3" t="n">
-        <v>44116.77083333334</v>
-      </c>
+      <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>PROYECTO EN TICS III</t>
+          <t>ASEGURAMIENTO DE LA CALIDAD</t>
         </is>
       </c>
     </row>
@@ -657,116 +659,6 @@
         <v>47</v>
       </c>
       <c r="O3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>263</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>824</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>19889608K</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Sebastián Ignacio Toro Severino</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>AA431</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>007</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>En posesión</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>44110.98806712963</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>44111.66756944444</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>44120.77083333334</v>
-      </c>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>BASES DE DATOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>244</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>765</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>196378081</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Nicolás Felipe Opazo Gana</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Celular Samsung Galaxy S4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>AAD832</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Con atraso</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>44108.05787037037</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>44108.0684837963</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>44110.77083333334</v>
-      </c>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/flask/app/static/files/exportaciones/solicitudes_activas.xlsx
+++ b/flask/app/static/files/exportaciones/solicitudes_activas.xlsx
@@ -460,7 +460,7 @@
     <col customWidth="1" max="2" min="2" width="13"/>
     <col customWidth="1" max="3" min="3" width="19"/>
     <col customWidth="1" max="4" min="4" width="31"/>
-    <col customWidth="1" max="5" min="5" width="20"/>
+    <col customWidth="1" max="5" min="5" width="27"/>
     <col customWidth="1" max="6" min="6" width="16"/>
     <col customWidth="1" max="7" min="7" width="23"/>
     <col customWidth="1" max="8" min="8" width="11"/>
@@ -470,7 +470,7 @@
     <col customWidth="1" max="12" min="12" width="19"/>
     <col customWidth="1" max="13" min="13" width="20"/>
     <col customWidth="1" max="14" min="14" width="24"/>
-    <col customWidth="1" max="15" min="15" width="27"/>
+    <col customWidth="1" max="15" min="15" width="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -552,10 +552,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
@@ -569,17 +569,17 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Modulo Wifi Heltecs LoRa 32</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>ABC432</t>
+          <t>ADM123</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -588,13 +588,13 @@
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44129.04983796296</v>
+        <v>44133.42015046296</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>44129.60146990741</v>
+        <v>44133.42039351852</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>44130.77083333334</v>
+        <v>44133.77083333334</v>
       </c>
       <c r="L2" s="2" t="n"/>
       <c r="M2" s="2" t="n"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>ASEGURAMIENTO DE LA CALIDAD</t>
+          <t>REDES DE DATOS</t>
         </is>
       </c>
     </row>
